--- a/files/QT/Lecture_8_data.xlsx
+++ b/files/QT/Lecture_8_data.xlsx
@@ -917,25 +917,25 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>129.2213754300486</c:v>
+                  <c:v>81.22137543004855</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1966.592539697031</c:v>
+                  <c:v>1990.592539697031</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3839.745442516999</c:v>
+                  <c:v>3724.745442516999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9087.323037596655</c:v>
+                  <c:v>9052.323037596655</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12766.79658812509</c:v>
+                  <c:v>12542.79658812509</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16677.71427517355</c:v>
+                  <c:v>15633.71427517355</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22078.79931067171</c:v>
+                  <c:v>22117.79931067171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="H14" s="9">
         <f ca="1">$F$10*F14^2+RANDBETWEEN(-F14/2,F14/2)</f>
-        <v>129.22137543004857</v>
+        <v>81.221375430048553</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="H15" s="9">
         <f t="shared" ref="H15:H20" ca="1" si="2">$F$10*F15^2+RANDBETWEEN(-F15/2,F15/2)</f>
-        <v>1966.5925396970308</v>
+        <v>1990.5925396970308</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="H16" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>3839.7454425169985</v>
+        <v>3724.7454425169985</v>
       </c>
     </row>
     <row r="17" spans="2:8">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="H17" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>9087.3230375966559</v>
+        <v>9052.3230375966559</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="H18" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>12766.796588125095</v>
+        <v>12542.796588125095</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="H19" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>16677.714275173552</v>
+        <v>15633.714275173552</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="H20" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>22078.799310671708</v>
+        <v>22117.799310671708</v>
       </c>
     </row>
   </sheetData>

--- a/files/QT/Lecture_8_data.xlsx
+++ b/files/QT/Lecture_8_data.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15240" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="section 1" sheetId="2" r:id="rId1"/>
     <sheet name="section 2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="17">
   <si>
     <t>&amp;</t>
   </si>
@@ -48,12 +49,39 @@
   <si>
     <t>\\</t>
   </si>
+  <si>
+    <t>Absolute Deviation</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>With Lecture's formula</t>
+  </si>
+  <si>
+    <t>With Excel Direct Formula</t>
+  </si>
+  <si>
+    <t>|x_i-\bar(x)|</t>
+  </si>
+  <si>
+    <t>(X_i-\bar(X))^2</t>
+  </si>
+  <si>
+    <t>X_i</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -88,6 +116,14 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -115,7 +151,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -155,8 +191,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -181,8 +225,24 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -202,6 +262,10 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -221,6 +285,10 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -390,11 +458,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2117224760"/>
-        <c:axId val="2117219896"/>
+        <c:axId val="2109287432"/>
+        <c:axId val="2109292392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2117224760"/>
+        <c:axId val="2109287432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -423,12 +491,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117219896"/>
+        <c:crossAx val="2109292392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2117219896"/>
+        <c:axId val="2109292392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -462,7 +530,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117224760"/>
+        <c:crossAx val="2109287432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -754,11 +822,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2117171672"/>
-        <c:axId val="2117168776"/>
+        <c:axId val="2109391384"/>
+        <c:axId val="2109394296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2117171672"/>
+        <c:axId val="2109391384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -768,12 +836,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117168776"/>
+        <c:crossAx val="2109394296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2117168776"/>
+        <c:axId val="2109394296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -783,7 +851,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117171672"/>
+        <c:crossAx val="2109391384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -917,25 +985,25 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>81.22137543004855</c:v>
+                  <c:v>121.2213754300486</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1990.592539697031</c:v>
+                  <c:v>1860.592539697031</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3724.745442516999</c:v>
+                  <c:v>3816.745442516999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9052.323037596655</c:v>
+                  <c:v>8259.323037596655</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12542.79658812509</c:v>
+                  <c:v>13368.79658812509</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15633.71427517355</c:v>
+                  <c:v>16115.71427517355</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22117.79931067171</c:v>
+                  <c:v>20826.79931067171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -950,11 +1018,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2117139672"/>
-        <c:axId val="2117136776"/>
+        <c:axId val="2109423496"/>
+        <c:axId val="2109426392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2117139672"/>
+        <c:axId val="2109423496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -964,12 +1032,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117136776"/>
+        <c:crossAx val="2109426392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2117136776"/>
+        <c:axId val="2109426392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -979,7 +1047,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117139672"/>
+        <c:crossAx val="2109423496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1426,7 +1494,7 @@
   <dimension ref="B1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1735,7 +1803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -2065,7 +2133,7 @@
       </c>
       <c r="H14" s="9">
         <f ca="1">$F$10*F14^2+RANDBETWEEN(-F14/2,F14/2)</f>
-        <v>81.221375430048553</v>
+        <v>121.22137543004855</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -2086,7 +2154,7 @@
       </c>
       <c r="H15" s="9">
         <f t="shared" ref="H15:H20" ca="1" si="2">$F$10*F15^2+RANDBETWEEN(-F15/2,F15/2)</f>
-        <v>1990.5925396970308</v>
+        <v>1860.5925396970308</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -2107,7 +2175,7 @@
       </c>
       <c r="H16" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>3724.7454425169985</v>
+        <v>3816.7454425169985</v>
       </c>
     </row>
     <row r="17" spans="2:8">
@@ -2128,7 +2196,7 @@
       </c>
       <c r="H17" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>9052.3230375966559</v>
+        <v>8259.3230375966559</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -2149,7 +2217,7 @@
       </c>
       <c r="H18" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>12542.796588125095</v>
+        <v>13368.796588125095</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -2170,7 +2238,7 @@
       </c>
       <c r="H19" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>15633.714275173552</v>
+        <v>16115.714275173552</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -2191,7 +2259,7 @@
       </c>
       <c r="H20" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>22117.799310671708</v>
+        <v>20826.799310671708</v>
       </c>
     </row>
   </sheetData>
@@ -2203,4 +2271,251 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="14">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7">
+        <f>(B3-$B$17)^2</f>
+        <v>19.506944444444446</v>
+      </c>
+      <c r="D3" s="14">
+        <f>ABS(B3-$B$17)</f>
+        <v>4.416666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="14">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7">
+        <f>(B4-$B$17)^2</f>
+        <v>11.673611111111112</v>
+      </c>
+      <c r="D4" s="14">
+        <f>ABS(B4-$B$17)</f>
+        <v>3.416666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="14">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7">
+        <f>(B5-$B$17)^2</f>
+        <v>11.673611111111112</v>
+      </c>
+      <c r="D5" s="14">
+        <f>ABS(B5-$B$17)</f>
+        <v>3.416666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="14">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7">
+        <f>(B6-$B$17)^2</f>
+        <v>2.0069444444444451</v>
+      </c>
+      <c r="D6" s="14">
+        <f>ABS(B6-$B$17)</f>
+        <v>1.416666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="14">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7">
+        <f>(B7-$B$17)^2</f>
+        <v>0.17361111111111135</v>
+      </c>
+      <c r="D7" s="14">
+        <f>ABS(B7-$B$17)</f>
+        <v>0.41666666666666696</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="14">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7">
+        <f>(B8-$B$17)^2</f>
+        <v>0.34027777777777746</v>
+      </c>
+      <c r="D8" s="14">
+        <f>ABS(B8-$B$17)</f>
+        <v>0.58333333333333304</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="14">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7">
+        <f>(B9-$B$17)^2</f>
+        <v>0.34027777777777746</v>
+      </c>
+      <c r="D9" s="14">
+        <f>ABS(B9-$B$17)</f>
+        <v>0.58333333333333304</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="14">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7">
+        <f>(B10-$B$17)^2</f>
+        <v>2.5069444444444433</v>
+      </c>
+      <c r="D10" s="14">
+        <f>ABS(B10-$B$17)</f>
+        <v>1.583333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="14">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7">
+        <f>(B11-$B$17)^2</f>
+        <v>2.5069444444444433</v>
+      </c>
+      <c r="D11" s="14">
+        <f>ABS(B11-$B$17)</f>
+        <v>1.583333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="14">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7">
+        <f>(B12-$B$17)^2</f>
+        <v>6.6736111111111098</v>
+      </c>
+      <c r="D12" s="14">
+        <f>ABS(B12-$B$17)</f>
+        <v>2.583333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="14">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7">
+        <f>(B13-$B$17)^2</f>
+        <v>6.6736111111111098</v>
+      </c>
+      <c r="D13" s="14">
+        <f>ABS(B13-$B$17)</f>
+        <v>2.583333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="14">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7">
+        <f>(B14-$B$17)^2</f>
+        <v>12.840277777777775</v>
+      </c>
+      <c r="D14" s="14">
+        <f>ABS(B14-$B$17)</f>
+        <v>3.583333333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="30">
+      <c r="B16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <f>AVERAGE(B3:B14)</f>
+        <v>6.416666666666667</v>
+      </c>
+      <c r="C17" s="7">
+        <f>1/12*SUM(B3:B14)</f>
+        <v>6.4166666666666661</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="11">
+        <f>MEDIAN(B3:B14)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="7">
+        <f>STDEVP(B3:B14)</f>
+        <v>2.5317429218272185</v>
+      </c>
+      <c r="C19" s="7">
+        <f>SQRT(1/12*SUM(C3:C14))</f>
+        <v>2.5317429218272185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="7">
+        <f>AVEDEV(B3:B14)</f>
+        <v>2.1805555555555549</v>
+      </c>
+      <c r="C20" s="7">
+        <f>1/12*SUM(D3:D14)</f>
+        <v>2.1805555555555549</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/files/QT/Lecture_8_data.xlsx
+++ b/files/QT/Lecture_8_data.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15240" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15240" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="section 1" sheetId="2" r:id="rId1"/>
     <sheet name="section 2" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="During Lecture" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="40">
   <si>
     <t>&amp;</t>
   </si>
@@ -72,16 +73,86 @@
   </si>
   <si>
     <t>X_i</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Circumference</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>Mean (excel formula differs)</t>
+  </si>
+  <si>
+    <t>x - x_bar</t>
+  </si>
+  <si>
+    <t>y - y_bar</t>
+  </si>
+  <si>
+    <t>St.Dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">or </t>
+  </si>
+  <si>
+    <t>a =</t>
+  </si>
+  <si>
+    <t>cov(x,y)/var(y)</t>
+  </si>
+  <si>
+    <t>b =</t>
+  </si>
+  <si>
+    <t>y_bar - x_bar</t>
+  </si>
+  <si>
+    <t>y_hat</t>
+  </si>
+  <si>
+    <t>residuals / epsilon</t>
+  </si>
+  <si>
+    <t>var(y_hat)/var(y)</t>
+  </si>
+  <si>
+    <t>cov(x,y)/(stdev(x)*stdev(y))</t>
+  </si>
+  <si>
+    <t>R2 =</t>
+  </si>
+  <si>
+    <t>rho =</t>
+  </si>
+  <si>
+    <t>Check rho^2 = R2</t>
+  </si>
+  <si>
+    <t>rho^2 - R2 =</t>
+  </si>
+  <si>
+    <t>Cov(x,y)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,6 +195,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -151,7 +229,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -199,8 +277,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -241,8 +343,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="71">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -266,6 +389,18 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -289,6 +424,18 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -349,43 +496,31 @@
             <c:spPr>
               <a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0320507507411776"/>
-                  <c:y val="0.569712748516406"/>
+                  <c:x val="-0.313682616596002"/>
+                  <c:y val="-0.0379118849146789"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr/>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
-                        <a:latin typeface="Arial"/>
-                        <a:cs typeface="Arial"/>
-                      </a:rPr>
-                      <a:t>y = 0.08x + 24</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US" sz="1200" b="1">
-                      <a:latin typeface="Arial"/>
-                      <a:cs typeface="Arial"/>
-                    </a:endParaRPr>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l">
+                    <a:defRPr sz="2000" b="1"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -458,11 +593,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2109287432"/>
-        <c:axId val="2109292392"/>
+        <c:axId val="2114915352"/>
+        <c:axId val="2114901112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2109287432"/>
+        <c:axId val="2114915352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -491,12 +626,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109292392"/>
+        <c:crossAx val="2114901112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2109292392"/>
+        <c:axId val="2114901112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,7 +665,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109287432"/>
+        <c:crossAx val="2114915352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -822,11 +957,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2109391384"/>
-        <c:axId val="2109394296"/>
+        <c:axId val="2114840552"/>
+        <c:axId val="2114843688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2109391384"/>
+        <c:axId val="2114840552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -836,12 +971,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109394296"/>
+        <c:crossAx val="2114843688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2109394296"/>
+        <c:axId val="2114843688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -851,7 +986,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109391384"/>
+        <c:crossAx val="2114840552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -985,25 +1120,25 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>121.2213754300486</c:v>
+                  <c:v>70.22137543004855</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1860.592539697031</c:v>
+                  <c:v>1947.592539697031</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3816.745442516999</c:v>
+                  <c:v>3687.745442516999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8259.323037596655</c:v>
+                  <c:v>8383.323037596655</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13368.79658812509</c:v>
+                  <c:v>13153.79658812509</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16115.71427517355</c:v>
+                  <c:v>15575.71427517355</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20826.79931067171</c:v>
+                  <c:v>22067.79931067171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1018,11 +1153,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2109423496"/>
-        <c:axId val="2109426392"/>
+        <c:axId val="2114820856"/>
+        <c:axId val="2114803320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2109423496"/>
+        <c:axId val="2114820856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1032,12 +1167,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109426392"/>
+        <c:crossAx val="2114803320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2109426392"/>
+        <c:axId val="2114803320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1047,7 +1182,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109423496"/>
+        <c:crossAx val="2114820856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1746,13 +1881,13 @@
         <v>0</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="I9" t="s">
         <v>8</v>
@@ -1790,6 +1925,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2133,7 +2269,7 @@
       </c>
       <c r="H14" s="9">
         <f ca="1">$F$10*F14^2+RANDBETWEEN(-F14/2,F14/2)</f>
-        <v>121.22137543004855</v>
+        <v>70.221375430048553</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -2154,7 +2290,7 @@
       </c>
       <c r="H15" s="9">
         <f t="shared" ref="H15:H20" ca="1" si="2">$F$10*F15^2+RANDBETWEEN(-F15/2,F15/2)</f>
-        <v>1860.5925396970308</v>
+        <v>1947.5925396970308</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -2175,7 +2311,7 @@
       </c>
       <c r="H16" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>3816.7454425169985</v>
+        <v>3687.7454425169985</v>
       </c>
     </row>
     <row r="17" spans="2:8">
@@ -2196,7 +2332,7 @@
       </c>
       <c r="H17" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>8259.3230375966559</v>
+        <v>8383.3230375966559</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -2217,7 +2353,7 @@
       </c>
       <c r="H18" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>13368.796588125095</v>
+        <v>13153.796588125095</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -2238,7 +2374,7 @@
       </c>
       <c r="H19" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>16115.714275173552</v>
+        <v>15575.714275173552</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -2259,7 +2395,7 @@
       </c>
       <c r="H20" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>20826.799310671708</v>
+        <v>22067.799310671708</v>
       </c>
     </row>
   </sheetData>
@@ -2277,7 +2413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -2303,11 +2439,11 @@
         <v>2</v>
       </c>
       <c r="C3" s="7">
-        <f>(B3-$B$17)^2</f>
+        <f t="shared" ref="C3:C14" si="0">(B3-$B$17)^2</f>
         <v>19.506944444444446</v>
       </c>
       <c r="D3" s="14">
-        <f>ABS(B3-$B$17)</f>
+        <f t="shared" ref="D3:D14" si="1">ABS(B3-$B$17)</f>
         <v>4.416666666666667</v>
       </c>
     </row>
@@ -2316,11 +2452,11 @@
         <v>3</v>
       </c>
       <c r="C4" s="7">
-        <f>(B4-$B$17)^2</f>
+        <f t="shared" si="0"/>
         <v>11.673611111111112</v>
       </c>
       <c r="D4" s="14">
-        <f>ABS(B4-$B$17)</f>
+        <f t="shared" si="1"/>
         <v>3.416666666666667</v>
       </c>
     </row>
@@ -2329,11 +2465,11 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <f>(B5-$B$17)^2</f>
+        <f t="shared" si="0"/>
         <v>11.673611111111112</v>
       </c>
       <c r="D5" s="14">
-        <f>ABS(B5-$B$17)</f>
+        <f t="shared" si="1"/>
         <v>3.416666666666667</v>
       </c>
     </row>
@@ -2342,11 +2478,11 @@
         <v>5</v>
       </c>
       <c r="C6" s="7">
-        <f>(B6-$B$17)^2</f>
+        <f t="shared" si="0"/>
         <v>2.0069444444444451</v>
       </c>
       <c r="D6" s="14">
-        <f>ABS(B6-$B$17)</f>
+        <f t="shared" si="1"/>
         <v>1.416666666666667</v>
       </c>
     </row>
@@ -2355,11 +2491,11 @@
         <v>6</v>
       </c>
       <c r="C7" s="7">
-        <f>(B7-$B$17)^2</f>
+        <f t="shared" si="0"/>
         <v>0.17361111111111135</v>
       </c>
       <c r="D7" s="14">
-        <f>ABS(B7-$B$17)</f>
+        <f t="shared" si="1"/>
         <v>0.41666666666666696</v>
       </c>
     </row>
@@ -2368,11 +2504,11 @@
         <v>7</v>
       </c>
       <c r="C8" s="7">
-        <f>(B8-$B$17)^2</f>
+        <f t="shared" si="0"/>
         <v>0.34027777777777746</v>
       </c>
       <c r="D8" s="14">
-        <f>ABS(B8-$B$17)</f>
+        <f t="shared" si="1"/>
         <v>0.58333333333333304</v>
       </c>
     </row>
@@ -2381,11 +2517,11 @@
         <v>7</v>
       </c>
       <c r="C9" s="7">
-        <f>(B9-$B$17)^2</f>
+        <f t="shared" si="0"/>
         <v>0.34027777777777746</v>
       </c>
       <c r="D9" s="14">
-        <f>ABS(B9-$B$17)</f>
+        <f t="shared" si="1"/>
         <v>0.58333333333333304</v>
       </c>
     </row>
@@ -2394,11 +2530,11 @@
         <v>8</v>
       </c>
       <c r="C10" s="7">
-        <f>(B10-$B$17)^2</f>
+        <f t="shared" si="0"/>
         <v>2.5069444444444433</v>
       </c>
       <c r="D10" s="14">
-        <f>ABS(B10-$B$17)</f>
+        <f t="shared" si="1"/>
         <v>1.583333333333333</v>
       </c>
     </row>
@@ -2407,11 +2543,11 @@
         <v>8</v>
       </c>
       <c r="C11" s="7">
-        <f>(B11-$B$17)^2</f>
+        <f t="shared" si="0"/>
         <v>2.5069444444444433</v>
       </c>
       <c r="D11" s="14">
-        <f>ABS(B11-$B$17)</f>
+        <f t="shared" si="1"/>
         <v>1.583333333333333</v>
       </c>
     </row>
@@ -2420,11 +2556,11 @@
         <v>9</v>
       </c>
       <c r="C12" s="7">
-        <f>(B12-$B$17)^2</f>
+        <f t="shared" si="0"/>
         <v>6.6736111111111098</v>
       </c>
       <c r="D12" s="14">
-        <f>ABS(B12-$B$17)</f>
+        <f t="shared" si="1"/>
         <v>2.583333333333333</v>
       </c>
     </row>
@@ -2433,11 +2569,11 @@
         <v>9</v>
       </c>
       <c r="C13" s="7">
-        <f>(B13-$B$17)^2</f>
+        <f t="shared" si="0"/>
         <v>6.6736111111111098</v>
       </c>
       <c r="D13" s="14">
-        <f>ABS(B13-$B$17)</f>
+        <f t="shared" si="1"/>
         <v>2.583333333333333</v>
       </c>
     </row>
@@ -2446,11 +2582,11 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <f>(B14-$B$17)^2</f>
+        <f t="shared" si="0"/>
         <v>12.840277777777775</v>
       </c>
       <c r="D14" s="14">
-        <f>ABS(B14-$B$17)</f>
+        <f t="shared" si="1"/>
         <v>3.583333333333333</v>
       </c>
     </row>
@@ -2518,4 +2654,377 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="18"/>
+    <col min="3" max="3" width="13.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="18"/>
+    <col min="6" max="6" width="15.33203125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="1">
+        <v>118</v>
+      </c>
+      <c r="C3" s="1">
+        <v>30</v>
+      </c>
+      <c r="E3" s="7">
+        <f>B3-B$13</f>
+        <v>-804.14285714285711</v>
+      </c>
+      <c r="F3" s="7">
+        <f>C3-C$13</f>
+        <v>-69.571428571428569</v>
+      </c>
+      <c r="G3" s="7">
+        <f>$F$18*B3+$F$19</f>
+        <v>34.052151624770687</v>
+      </c>
+      <c r="H3" s="7">
+        <f>C3-G3</f>
+        <v>-4.052151624770687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="1">
+        <v>484</v>
+      </c>
+      <c r="C4" s="1">
+        <v>58</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" ref="E4:E9" si="0">B4-B$13</f>
+        <v>-438.14285714285711</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" ref="F4:F9" si="1">C4-C$13</f>
+        <v>-41.571428571428569</v>
+      </c>
+      <c r="G4" s="7">
+        <f>$F$18*B4+$F$19</f>
+        <v>63.872792509001897</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" ref="H4:H9" si="2">C4-G4</f>
+        <v>-5.8727925090018971</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="1">
+        <v>664</v>
+      </c>
+      <c r="C5" s="1">
+        <v>87</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>-258.14285714285711</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="1"/>
+        <v>-12.571428571428569</v>
+      </c>
+      <c r="G5" s="7">
+        <f>$F$18*B5+$F$19</f>
+        <v>78.53868146845987</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="2"/>
+        <v>8.4613185315401296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="1">
+        <v>1004</v>
+      </c>
+      <c r="C6" s="1">
+        <v>115</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>81.85714285714289</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="1"/>
+        <v>15.428571428571431</v>
+      </c>
+      <c r="G6" s="7">
+        <f>$F$18*B6+$F$19</f>
+        <v>106.24091616965826</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="2"/>
+        <v>8.7590838303417371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="1">
+        <v>1231</v>
+      </c>
+      <c r="C7" s="1">
+        <v>120</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>308.85714285714289</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="1"/>
+        <v>20.428571428571431</v>
+      </c>
+      <c r="G7" s="7">
+        <f>$F$18*B7+$F$19</f>
+        <v>124.73623169075249</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="2"/>
+        <v>-4.73623169075249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="1">
+        <v>1372</v>
+      </c>
+      <c r="C8" s="1">
+        <v>142</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
+        <v>449.85714285714289</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="1"/>
+        <v>42.428571428571431</v>
+      </c>
+      <c r="G8" s="7">
+        <f>$F$18*B8+$F$19</f>
+        <v>136.22451137566122</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="2"/>
+        <v>5.7754886243387773</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="1">
+        <v>1582</v>
+      </c>
+      <c r="C9" s="1">
+        <v>145</v>
+      </c>
+      <c r="E9" s="7">
+        <f>B9-B$13</f>
+        <v>659.85714285714289</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="1"/>
+        <v>45.428571428571431</v>
+      </c>
+      <c r="G9" s="7">
+        <f>$F$18*B9+$F$19</f>
+        <v>153.33471516169553</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="2"/>
+        <v>-8.3347151616955273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="7">
+        <f>SUM(B3:B9)/COUNT(B3:B9)</f>
+        <v>922.14285714285711</v>
+      </c>
+      <c r="C11" s="7">
+        <f>SUM(C3:C9)/COUNT(C3:C9)</f>
+        <v>99.571428571428569</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="11">
+        <f>SQRT(SUMPRODUCT(E3:E9,E3:E9)/COUNT(E3:E9))</f>
+        <v>484.786971940527</v>
+      </c>
+      <c r="F11" s="11">
+        <f>SQRT(SUMPRODUCT(F3:F9,F3:F9)/COUNT(F3:F9))</f>
+        <v>40.081549524000415</v>
+      </c>
+      <c r="G11" s="11">
+        <f>_xlfn.STDEV.P(G3:G9)</f>
+        <v>39.499066108175796</v>
+      </c>
+      <c r="H11" s="11">
+        <f>_xlfn.STDEV.P(H3:H9)</f>
+        <v>6.8084057478134135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="7">
+        <f>AVERAGE(B3:B9)</f>
+        <v>922.14285714285711</v>
+      </c>
+      <c r="C13" s="7">
+        <f>AVERAGE(C3:C9)</f>
+        <v>99.571428571428569</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="11">
+        <f>_xlfn.STDEV.P(B3:B9)</f>
+        <v>484.786971940527</v>
+      </c>
+      <c r="F13" s="11">
+        <f>_xlfn.STDEV.P(C3:C9)</f>
+        <v>40.081549524000415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="D15" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="22">
+        <f>SUMPRODUCT(E3:E9,F3:F9)/COUNT(F3:F9)</f>
+        <v>19148.632653061224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="D16" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="7">
+        <f>_xlfn.COVARIANCE.P(B3:B9,C3:C9)</f>
+        <v>19148.632653061224</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7">
+      <c r="E18" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="22">
+        <f>SUMPRODUCT(E3:E9,F3:F9)/SUMPRODUCT(E3:E9,E3:E9)</f>
+        <v>8.1477160885877628E-2</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7">
+      <c r="E19" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="22">
+        <f>C13-F18*B13</f>
+        <v>24.437846640237126</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7">
+      <c r="E21" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="22">
+        <f>G11^2/(F11)^2</f>
+        <v>0.97114627728003122</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7">
+      <c r="E22" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="7">
+        <f>SUMPRODUCT(E3:E9,F3:F9)/(F11*E11*COUNT(F3:F9))</f>
+        <v>0.98546754247921819</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7">
+      <c r="E24" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7">
+      <c r="E25" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="21">
+        <f>F22*F22-F21</f>
+        <v>-1.5543122344752192E-15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>